--- a/Официальные группы/списки ЛЭМБ.xlsx
+++ b/Официальные группы/списки ЛЭМБ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="18468" windowHeight="9312"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="106">
   <si>
     <t>Фамилия</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>На отчисление</t>
   </si>
   <si>
     <t>(вид даты - 01.01.2000)</t>
@@ -336,11 +339,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="178" formatCode="_-* #\ ##0\ &quot;₽&quot;_-;\-* #\ ##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\ ##0.00_-;\-* #\ ##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #\ ##0.00\ &quot;₽&quot;_-;\-* #\ ##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -363,9 +366,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,14 +381,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,21 +488,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -423,78 +495,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,187 +525,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,6 +775,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -783,6 +819,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,212 +872,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,7 +1038,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1358,19 +1361,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="19.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="25.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1" spans="2:6">
+    <row r="1" ht="26.25" customHeight="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,31 +1389,34 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:6">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="2:6">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5">
         <v>38174</v>
@@ -1418,19 +1424,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5">
         <v>38321</v>
@@ -1438,19 +1444,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="5">
         <v>38137</v>
@@ -1458,19 +1464,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5">
         <v>38745</v>
@@ -1478,19 +1484,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5">
         <v>38051</v>
@@ -1498,19 +1504,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5">
         <v>39164</v>
@@ -1518,19 +1524,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5">
         <v>39171</v>
@@ -1538,19 +1544,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="5">
         <v>38989</v>
@@ -1558,19 +1564,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5">
         <v>38367</v>
@@ -1578,19 +1584,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="5">
         <v>38302</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="5">
         <v>38518</v>
@@ -1618,16 +1624,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="5">
         <v>38917</v>
@@ -1635,19 +1641,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="5">
         <v>38696</v>
@@ -1655,19 +1661,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="5">
         <v>38933</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="5">
         <v>38982</v>
@@ -1695,59 +1701,62 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="5">
         <v>39063</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="5">
         <v>39376</v>
       </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="5">
         <v>39406</v>
@@ -1755,119 +1764,128 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="5">
         <v>39472</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="5">
         <v>39089</v>
       </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="5">
         <v>39581</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" s="5">
         <v>40104</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" s="5">
         <v>39657</v>
       </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="5">
         <v>39892</v>
@@ -1875,19 +1893,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" s="5">
         <v>39331</v>
@@ -1895,19 +1913,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30" s="5">
         <v>38801</v>
@@ -1915,19 +1933,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="5">
         <v>39485</v>
@@ -1935,19 +1953,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="5">
         <v>40195</v>
@@ -1955,19 +1973,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33" s="5">
         <v>39166</v>
@@ -1975,19 +1993,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" s="5">
         <v>40070</v>
@@ -1995,16 +2013,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F35" s="5">
         <v>39554</v>
@@ -2012,59 +2030,62 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" s="5">
         <v>38434</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F37" s="5">
         <v>38094</v>
       </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" s="5">
         <v>39725</v>
@@ -2072,19 +2093,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F39" s="5">
         <v>39622</v>
@@ -2092,19 +2113,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" s="5">
         <v>38070</v>
@@ -2112,19 +2133,19 @@
     </row>
     <row r="41" ht="15.15" spans="1:6">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" s="5">
         <v>38413</v>
@@ -2132,19 +2153,19 @@
     </row>
     <row r="42" ht="15.15" spans="1:6">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" s="5">
         <v>39606</v>
